--- a/shift_gen/shift_kibou.xlsx
+++ b/shift_gen/shift_kibou.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/764239024f7447e3/ドキュメント/shift_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/764239024f7447e3/ドキュメント/git/Shift_Generator/shift_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{CACB922A-BE89-4A46-A046-1F7012CEFDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33812EB6-06F8-4CAA-AD9F-B54A91BC69E7}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{CACB922A-BE89-4A46-A046-1F7012CEFDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BF73F4-1143-4CFD-A3CE-9802EBFF3033}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{175F198C-7C03-43DC-B564-13A4F5392805}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>従業員ID</t>
     <rPh sb="0" eb="3">
@@ -190,6 +190,41 @@
     <rPh sb="0" eb="2">
       <t>シミズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジ、品出し、冷蔵</t>
+    <rPh sb="3" eb="5">
+      <t>シナダ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジ、品出し</t>
+    <rPh sb="3" eb="5">
+      <t>シナダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジ、品出し</t>
+  </si>
+  <si>
+    <t>レジ、品出し、冷蔵</t>
+  </si>
+  <si>
+    <t>品出し、冷蔵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品出し</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,314 +622,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A81F11-A14B-4DE1-A685-6EAAC28FE2AB}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.375</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.375</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.375</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.375</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>0.75</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E9" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E10" s="2">
         <v>0.375</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>45474</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.375</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>0.75</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>45474</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>45474</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E18" s="2">
         <v>0.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>0.75</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>45474</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B19" t="s">
         <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45474</v>
       </c>
     </row>
   </sheetData>
